--- a/data/2021-03-18_BioAvail_SUVA254_NSC.xlsx
+++ b/data/2021-03-18_BioAvail_SUVA254_NSC.xlsx
@@ -983,8 +983,8 @@
   <dimension ref="A1:Q2009"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1530" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1663" sqref="H1663:H1675"/>
+      <pane ySplit="1" topLeftCell="A1653" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H1664" sqref="H1664"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54780,14 +54780,14 @@
         <v>40</v>
       </c>
       <c r="H1664">
-        <v>0.3</v>
+        <v>0.13</v>
       </c>
       <c r="I1664">
         <v>8.14</v>
       </c>
       <c r="K1664">
         <f t="shared" si="16"/>
-        <v>3.6855036855036856</v>
+        <v>1.597051597051597</v>
       </c>
       <c r="L1664" t="e">
         <f t="shared" si="15"/>
